--- a/MedantaExcel/forms automation.xlsx
+++ b/MedantaExcel/forms automation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
   <si>
     <t>No</t>
   </si>
@@ -1362,12 +1362,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="3"/>
-    <col min="2" max="2" width="25.1428571428571" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7142857142857" style="3" customWidth="1"/>
-    <col min="4" max="4" width="138" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.14285714285714" style="3"/>
-    <col min="6" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" style="3" width="9.14285714285714"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.1428571428571"/>
+    <col min="3" max="3" customWidth="true" style="3" width="36.7142857142857"/>
+    <col min="4" max="4" customWidth="true" style="3" width="138.0"/>
+    <col min="5" max="5" style="3" width="9.14285714285714"/>
+    <col min="6" max="16384" style="1" width="9.14285714285714"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:5">
@@ -1421,7 +1421,9 @@
       <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1440,7 +1442,9 @@
       <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1764,7 +1768,9 @@
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="23"/>
-      <c r="E25" s="10"/>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:5">
       <c r="A26" s="6"/>
@@ -1773,7 +1779,9 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="23"/>
-      <c r="E26" s="10"/>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:5">
       <c r="A27" s="6">
@@ -1788,7 +1796,9 @@
       <c r="D27" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="10"/>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:5">
       <c r="A28" s="6">

--- a/MedantaExcel/forms automation.xlsx
+++ b/MedantaExcel/forms automation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="69">
   <si>
     <t>No</t>
   </si>
@@ -40,190 +40,187 @@
     <t>https://www.medanta.org/hospitals-near-me/gurugram-hospital/speciality/orthopaedics/disease/achilles-tendon-injury-symptoms-causes-treatment-recovery</t>
   </si>
   <si>
+    <t>Become A Partner</t>
+  </si>
+  <si>
+    <t>Business Model Form</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/medanta-labs/become-a-partner</t>
+  </si>
+  <si>
+    <t>Blog Detail Page</t>
+  </si>
+  <si>
+    <t>Query Form</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/patient-education-blog/omicron-variant-key-facts-you-need-to-know-in-2025</t>
+  </si>
+  <si>
+    <t>Contact us</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/contact-us</t>
+  </si>
+  <si>
+    <t>Enquiry</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>CPR</t>
+  </si>
+  <si>
+    <t>Enroll Now Form</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/cpr</t>
+  </si>
+  <si>
+    <t>Cultural Event Detail Page</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/careers/events/cultural-events</t>
+  </si>
+  <si>
+    <t>Elder care</t>
+  </si>
+  <si>
+    <t>Request a Callback</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/elder-care-program</t>
+  </si>
+  <si>
+    <t>Enroll now Form</t>
+  </si>
+  <si>
+    <t>Enquiry Form</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Request a call back form</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/</t>
+  </si>
+  <si>
+    <t>Homecare</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/home-care</t>
+  </si>
+  <si>
+    <t>Stroke Rehabilitation Program</t>
+  </si>
+  <si>
+    <t>Stroke Rehabilitation Program - https://www.medanta.org/home-care-service-program/stroke-rehabilitation-program</t>
+  </si>
+  <si>
+    <t>Elder Care program</t>
+  </si>
+  <si>
+    <t>Elder Care program - https://www.medanta.org/home-care-service-program/elder-care-program</t>
+  </si>
+  <si>
+    <t>International Patients</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/international-patient</t>
+  </si>
+  <si>
+    <t>Temporary Landing</t>
+  </si>
+  <si>
+    <t>QueryForm</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/ehc/hishealth-checkup/L1gz</t>
+  </si>
+  <si>
+    <t>Medanta Labs</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/medanta-labs</t>
+  </si>
+  <si>
+    <t>Medanta Pharmacy</t>
+  </si>
+  <si>
+    <t>Request a call back</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/medanta-pharmacy</t>
+  </si>
+  <si>
+    <t>Prescription upload Form</t>
+  </si>
+  <si>
+    <t>Plan your trip</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/plan-your-trip</t>
+  </si>
+  <si>
+    <t>Telemedicine</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/tele-medicine</t>
+  </si>
+  <si>
+    <t>Air Ambulance</t>
+  </si>
+  <si>
+    <t>HealthCheckup</t>
+  </si>
+  <si>
+    <t>Request an Estimate</t>
+  </si>
+  <si>
+    <t>Price Estimate form</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/international-patient/services/request-an-estimate</t>
+  </si>
+  <si>
+    <t>Second Opinion</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/second-opinion</t>
+  </si>
+  <si>
+    <t>Technology Detail Pages</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/hospitals-near-me/gurugram-hospital/speciality/radiology/technology/ct-scan-on-wheels</t>
+  </si>
+  <si>
+    <t>Treatment Detail</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/hospitals-near-me/gurugram-hospital/speciality/plastic-surgery/treatment/abdominoplasty-tummy-tuck-operation</t>
+  </si>
+  <si>
+    <t>E -ICU</t>
+  </si>
+  <si>
+    <t>E-ICU</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/eicu</t>
+  </si>
+  <si>
     <t>PASS!</t>
   </si>
   <si>
-    <t>Become A Partner</t>
-  </si>
-  <si>
-    <t>Business Model Form</t>
-  </si>
-  <si>
-    <t>https://www.medanta.org/medanta-labs/become-a-partner</t>
-  </si>
-  <si>
-    <t>Blog Detail Page</t>
-  </si>
-  <si>
-    <t>Query Form</t>
-  </si>
-  <si>
-    <t>https://www.medanta.org/patient-education-blog/omicron-variant-key-facts-you-need-to-know-in-2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact us </t>
-  </si>
-  <si>
-    <t>Feedback</t>
-  </si>
-  <si>
-    <t>https://www.medanta.org/contact-us</t>
-  </si>
-  <si>
-    <t>Enquiry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Others </t>
-  </si>
-  <si>
-    <t>CPR</t>
-  </si>
-  <si>
-    <t>Enroll Now Form</t>
-  </si>
-  <si>
-    <t>https://www.medanta.org/cpr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cultural Event Detail Page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Query Form </t>
-  </si>
-  <si>
-    <t>https://www.medanta.org/careers/events/cultural-events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elder care </t>
-  </si>
-  <si>
-    <t>Request a Callback</t>
-  </si>
-  <si>
-    <t>https://www.medanta.org/elder-care-program</t>
-  </si>
-  <si>
-    <t>Enroll now Form</t>
-  </si>
-  <si>
-    <t>Enquiry Form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Header </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request a call back form </t>
-  </si>
-  <si>
-    <t>https://www.medanta.org/</t>
-  </si>
-  <si>
-    <t>Homecare</t>
-  </si>
-  <si>
-    <t>https://www.medanta.org/home-care</t>
-  </si>
-  <si>
-    <t>Stroke Rehabilitation Program</t>
-  </si>
-  <si>
-    <t>Stroke Rehabilitation Program - https://www.medanta.org/home-care-service-program/stroke-rehabilitation-program</t>
-  </si>
-  <si>
-    <t>Elder Care program</t>
-  </si>
-  <si>
-    <t>Elder Care program - https://www.medanta.org/home-care-service-program/elder-care-program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Patients </t>
-  </si>
-  <si>
-    <t>https://www.medanta.org/international-patient</t>
-  </si>
-  <si>
-    <t>Temporary Landing</t>
-  </si>
-  <si>
-    <t>QueryForm</t>
-  </si>
-  <si>
-    <t>https://www.medanta.org/ehc/hishealth-checkup/L1gz</t>
-  </si>
-  <si>
-    <t>Medanta Labs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request a Callback </t>
-  </si>
-  <si>
-    <t>https://www.medanta.org/medanta-labs</t>
-  </si>
-  <si>
-    <t>Medanta Pharmacy</t>
-  </si>
-  <si>
-    <t>Request a call back</t>
-  </si>
-  <si>
-    <t>https://www.medanta.org/medanta-pharmacy</t>
-  </si>
-  <si>
-    <t>Prescription upload Form</t>
-  </si>
-  <si>
-    <t>Plan your trip</t>
-  </si>
-  <si>
-    <t>https://www.medanta.org/plan-your-trip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telemedicine </t>
-  </si>
-  <si>
-    <t>https://www.medanta.org/tele-medicine</t>
-  </si>
-  <si>
-    <t>Air Ambulance</t>
-  </si>
-  <si>
-    <t>HealthCheckup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request an Estimate </t>
-  </si>
-  <si>
-    <t>Price Estimate form</t>
-  </si>
-  <si>
-    <t>https://www.medanta.org/international-patient/services/request-an-estimate</t>
-  </si>
-  <si>
-    <t>Second Opinion</t>
-  </si>
-  <si>
-    <t>https://www.medanta.org/second-opinion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technology Detail Pages </t>
-  </si>
-  <si>
-    <t>https://www.medanta.org/hospitals-near-me/gurugram-hospital/speciality/radiology/technology/ct-scan-on-wheels</t>
-  </si>
-  <si>
-    <t>Treatment Detail</t>
-  </si>
-  <si>
-    <t>https://www.medanta.org/hospitals-near-me/gurugram-hospital/speciality/plastic-surgery/treatment/abdominoplasty-tummy-tuck-operation</t>
-  </si>
-  <si>
-    <t>E -ICU</t>
-  </si>
-  <si>
-    <t>E-ICU</t>
-  </si>
-  <si>
-    <t>https://www.medanta.org/eicu</t>
+    <t>FAIL!</t>
   </si>
 </sst>
 </file>
@@ -231,8 +228,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -278,16 +275,23 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,22 +299,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,23 +322,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,6 +359,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -373,28 +377,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,9 +412,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,61 +446,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,121 +602,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,32 +714,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,6 +734,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,11 +773,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,168 +811,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -999,40 +996,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -1357,7 +1339,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1401,7 +1383,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1413,16 +1395,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1434,16 +1416,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1452,18 +1434,20 @@
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
       <c r="A5" s="6">
-        <v>5</v>
-      </c>
-      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="10"/>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1471,44 +1455,54 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
       <c r="A6" s="6">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
       <c r="A7" s="6">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:9">
       <c r="A8" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="10"/>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1516,18 +1510,20 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="1:9">
       <c r="A9" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="10"/>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1535,18 +1531,20 @@
     </row>
     <row r="10" s="2" customFormat="1" spans="1:9">
       <c r="A10" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="10"/>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1554,14 +1552,18 @@
     </row>
     <row r="11" s="2" customFormat="1" spans="1:9">
       <c r="A11" s="6">
-        <v>11</v>
-      </c>
-      <c r="B11" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="C11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1569,14 +1571,18 @@
     </row>
     <row r="12" s="2" customFormat="1" spans="1:9">
       <c r="A12" s="6">
-        <v>12</v>
-      </c>
-      <c r="B12" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="C12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1584,18 +1590,20 @@
     </row>
     <row r="13" s="2" customFormat="1" spans="1:9">
       <c r="A13" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="10"/>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1603,262 +1611,304 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
       <c r="A14" s="6">
-        <v>14</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
       <c r="A15" s="6">
-        <v>15</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
       <c r="A16" s="6">
-        <v>16</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
       <c r="A17" s="6">
-        <v>17</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="21"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:6">
       <c r="A18" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="22"/>
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:6">
       <c r="A19" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="22"/>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:6">
       <c r="A20" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="22"/>
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:5">
       <c r="A21" s="6">
-        <v>21</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>48</v>
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:5">
       <c r="A22" s="6">
-        <v>22</v>
-      </c>
-      <c r="B22" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="C22" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:5">
       <c r="A23" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:5">
       <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:5">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="18"/>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:5">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:5">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="23"/>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:5">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="C26" s="8"/>
-      <c r="D26" s="23"/>
+      <c r="D26" s="18"/>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:5">
       <c r="A27" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:5">
       <c r="A28" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:5">
       <c r="A29" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:5">
       <c r="A30" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="10"/>
+        <v>63</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:5">
       <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:5">
       <c r="A32"/>
@@ -1868,11 +1918,7 @@
       <c r="E32"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B21:B22"/>
+  <mergeCells count="1">
     <mergeCell ref="D10:D12"/>
   </mergeCells>
   <hyperlinks>
